--- a/base.xlsx
+++ b/base.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Programming\JavaPrograms\csv\creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1271FF-5DEF-4330-A607-EFF1879EA1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20233D65-7DC2-4306-8C5B-181FD81D4E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{EC693953-B083-478C-AF12-8197516B639C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC693953-B083-478C-AF12-8197516B639C}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -665,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50369E04-0887-4700-98F0-3BE57334B0BF}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -677,7 +677,7 @@
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -693,20 +693,8 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="str">
-        <f>MID(E1,1,2)</f>
-        <v>55</v>
-      </c>
-      <c r="G1" t="str">
-        <f>MID(E1,4,2)</f>
-        <v>20</v>
-      </c>
-      <c r="H1">
-        <f>F1*60+G1</f>
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -722,20 +710,8 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="str">
-        <f t="shared" ref="F2:F30" si="0">MID(E2,1,2)</f>
-        <v>57</v>
-      </c>
-      <c r="G2" t="str">
-        <f t="shared" ref="G2:G30" si="1">MID(E2,4,2)</f>
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <f t="shared" ref="H2:H30" si="2">F2*60+G2</f>
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -751,20 +727,8 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="str">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G3" t="str">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="H3">
-        <f t="shared" si="2"/>
-        <v>3279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -780,20 +744,8 @@
       <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="str">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <f t="shared" si="2"/>
-        <v>3135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -810,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -827,7 +779,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -844,7 +796,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -861,7 +813,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -878,7 +830,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>52</v>
       </c>
@@ -895,7 +847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -912,7 +864,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -929,7 +881,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -946,7 +898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -963,7 +915,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -980,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1246,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAFE002-1D3A-47B3-8C94-394D6FA5D57A}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1269,15 +1221,15 @@
         <v>24</v>
       </c>
       <c r="F1" t="str">
-        <f>MID(E1,1,2)</f>
+        <f t="shared" ref="F1:F30" si="0">MID(E1,1,2)</f>
         <v>30</v>
       </c>
       <c r="G1" t="str">
-        <f>MID(E1,4,2)</f>
+        <f t="shared" ref="G1:G30" si="1">MID(E1,4,2)</f>
         <v>00</v>
       </c>
       <c r="H1">
-        <f>F1*60+G1</f>
+        <f t="shared" ref="H1:H30" si="2">F1*60+G1</f>
         <v>1800</v>
       </c>
     </row>
@@ -1298,15 +1250,15 @@
         <v>32</v>
       </c>
       <c r="F2" t="str">
-        <f>MID(E2,1,2)</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G2" t="str">
-        <f>MID(E2,4,2)</f>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="H2">
-        <f>F2*60+G2</f>
+        <f t="shared" si="2"/>
         <v>1813</v>
       </c>
     </row>
@@ -1327,15 +1279,15 @@
         <v>33</v>
       </c>
       <c r="F3" t="str">
-        <f>MID(E3,1,2)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="G3" t="str">
-        <f>MID(E3,4,2)</f>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="H3">
-        <f>F3*60+G3</f>
+        <f t="shared" si="2"/>
         <v>1903</v>
       </c>
     </row>
@@ -1356,15 +1308,15 @@
         <v>35</v>
       </c>
       <c r="F4" t="str">
-        <f>MID(E4,1,2)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G4" t="str">
-        <f>MID(E4,4,2)</f>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="H4">
-        <f>F4*60+G4</f>
+        <f t="shared" si="2"/>
         <v>1949</v>
       </c>
     </row>
@@ -1385,15 +1337,15 @@
         <v>26</v>
       </c>
       <c r="F5" t="str">
-        <f>MID(E5,1,2)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G5" t="str">
-        <f>MID(E5,4,2)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H5">
-        <f>F5*60+G5</f>
+        <f t="shared" si="2"/>
         <v>1953</v>
       </c>
     </row>
@@ -1414,15 +1366,15 @@
         <v>28</v>
       </c>
       <c r="F6" t="str">
-        <f>MID(E6,1,2)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G6" t="str">
-        <f>MID(E6,4,2)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H6">
-        <f>F6*60+G6</f>
+        <f t="shared" si="2"/>
         <v>1965</v>
       </c>
     </row>
@@ -1443,15 +1395,15 @@
         <v>27</v>
       </c>
       <c r="F7" t="str">
-        <f>MID(E7,1,2)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="G7" t="str">
-        <f>MID(E7,4,2)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H7">
-        <f>F7*60+G7</f>
+        <f t="shared" si="2"/>
         <v>1990</v>
       </c>
     </row>
@@ -1472,15 +1424,15 @@
         <v>36</v>
       </c>
       <c r="F8" t="str">
-        <f>MID(E8,1,2)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="G8" t="str">
-        <f>MID(E8,4,2)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H8">
-        <f>F8*60+G8</f>
+        <f t="shared" si="2"/>
         <v>2085</v>
       </c>
     </row>
@@ -1501,15 +1453,15 @@
         <v>25</v>
       </c>
       <c r="F9" t="str">
-        <f>MID(E9,1,2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G9" t="str">
-        <f>MID(E9,4,2)</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H9">
-        <f>F9*60+G9</f>
+        <f t="shared" si="2"/>
         <v>2117</v>
       </c>
     </row>
@@ -1530,15 +1482,15 @@
         <v>37</v>
       </c>
       <c r="F10" t="str">
-        <f>MID(E10,1,2)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G10" t="str">
-        <f>MID(E10,4,2)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="H10">
-        <f>F10*60+G10</f>
+        <f t="shared" si="2"/>
         <v>2159</v>
       </c>
     </row>
@@ -1559,15 +1511,15 @@
         <v>34</v>
       </c>
       <c r="F11" t="str">
-        <f>MID(E11,1,2)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="G11" t="str">
-        <f>MID(E11,4,2)</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="H11">
-        <f>F11*60+G11</f>
+        <f t="shared" si="2"/>
         <v>2196</v>
       </c>
     </row>
@@ -1588,15 +1540,15 @@
         <v>29</v>
       </c>
       <c r="F12" t="str">
-        <f>MID(E12,1,2)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="G12" t="str">
-        <f>MID(E12,4,2)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="H12">
-        <f>F12*60+G12</f>
+        <f t="shared" si="2"/>
         <v>2279</v>
       </c>
     </row>
@@ -1617,15 +1569,15 @@
         <v>31</v>
       </c>
       <c r="F13" t="str">
-        <f>MID(E13,1,2)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="G13" t="str">
-        <f>MID(E13,4,2)</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H13">
-        <f>F13*60+G13</f>
+        <f t="shared" si="2"/>
         <v>2291</v>
       </c>
     </row>
@@ -1646,15 +1598,15 @@
         <v>30</v>
       </c>
       <c r="F14" t="str">
-        <f>MID(E14,1,2)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G14" t="str">
-        <f>MID(E14,4,2)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="H14">
-        <f>F14*60+G14</f>
+        <f t="shared" si="2"/>
         <v>2361</v>
       </c>
     </row>
@@ -1675,15 +1627,15 @@
         <v>23</v>
       </c>
       <c r="F15" t="str">
-        <f>MID(E15,1,2)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G15" t="str">
-        <f>MID(E15,4,2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
       </c>
       <c r="H15">
-        <f>F15*60+G15</f>
+        <f t="shared" si="2"/>
         <v>2400</v>
       </c>
     </row>
@@ -1704,15 +1656,15 @@
         <v>16</v>
       </c>
       <c r="F16" t="str">
-        <f>MID(E16,1,2)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="G16" t="str">
-        <f>MID(E16,4,2)</f>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="H16">
-        <f>F16*60+G16</f>
+        <f t="shared" si="2"/>
         <v>3045</v>
       </c>
     </row>
@@ -1733,15 +1685,15 @@
         <v>12</v>
       </c>
       <c r="F17" t="str">
-        <f>MID(E17,1,2)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="G17" t="str">
-        <f>MID(E17,4,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="H17">
-        <f>F17*60+G17</f>
+        <f t="shared" si="2"/>
         <v>3061</v>
       </c>
     </row>
@@ -1762,15 +1714,15 @@
         <v>19</v>
       </c>
       <c r="F18" t="str">
-        <f>MID(E18,1,2)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="G18" t="str">
-        <f>MID(E18,4,2)</f>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="H18">
-        <f>F18*60+G18</f>
+        <f t="shared" si="2"/>
         <v>3087</v>
       </c>
     </row>
@@ -1791,15 +1743,15 @@
         <v>11</v>
       </c>
       <c r="F19" t="str">
-        <f>MID(E19,1,2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G19" t="str">
-        <f>MID(E19,4,2)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H19">
-        <f>F19*60+G19</f>
+        <f t="shared" si="2"/>
         <v>3135</v>
       </c>
     </row>
@@ -1820,15 +1772,15 @@
         <v>17</v>
       </c>
       <c r="F20" t="str">
-        <f>MID(E20,1,2)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
       <c r="G20" t="str">
-        <f>MID(E20,4,2)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H20">
-        <f>F20*60+G20</f>
+        <f t="shared" si="2"/>
         <v>3159</v>
       </c>
     </row>
@@ -1849,15 +1801,15 @@
         <v>15</v>
       </c>
       <c r="F21" t="str">
-        <f>MID(E21,1,2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G21" t="str">
-        <f>MID(E21,4,2)</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
       <c r="H21">
-        <f>F21*60+G21</f>
+        <f t="shared" si="2"/>
         <v>3213</v>
       </c>
     </row>
@@ -1878,15 +1830,15 @@
         <v>20</v>
       </c>
       <c r="F22" t="str">
-        <f>MID(E22,1,2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G22" t="str">
-        <f>MID(E22,4,2)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H22">
-        <f>F22*60+G22</f>
+        <f t="shared" si="2"/>
         <v>3220</v>
       </c>
     </row>
@@ -1907,15 +1859,15 @@
         <v>13</v>
       </c>
       <c r="F23" t="str">
-        <f>MID(E23,1,2)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
       <c r="G23" t="str">
-        <f>MID(E23,4,2)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="H23">
-        <f>F23*60+G23</f>
+        <f t="shared" si="2"/>
         <v>3239</v>
       </c>
     </row>
@@ -1936,15 +1888,15 @@
         <v>10</v>
       </c>
       <c r="F24" t="str">
-        <f>MID(E24,1,2)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G24" t="str">
-        <f>MID(E24,4,2)</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="H24">
-        <f>F24*60+G24</f>
+        <f t="shared" si="2"/>
         <v>3279</v>
       </c>
     </row>
@@ -1965,15 +1917,15 @@
         <v>22</v>
       </c>
       <c r="F25" t="str">
-        <f>MID(E25,1,2)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
       <c r="G25" t="str">
-        <f>MID(E25,4,2)</f>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
       <c r="H25">
-        <f>F25*60+G25</f>
+        <f t="shared" si="2"/>
         <v>3299</v>
       </c>
     </row>
@@ -1994,15 +1946,15 @@
         <v>8</v>
       </c>
       <c r="F26" t="str">
-        <f>MID(E26,1,2)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G26" t="str">
-        <f>MID(E26,4,2)</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="H26">
-        <f>F26*60+G26</f>
+        <f t="shared" si="2"/>
         <v>3320</v>
       </c>
     </row>
@@ -2023,15 +1975,15 @@
         <v>21</v>
       </c>
       <c r="F27" t="str">
-        <f>MID(E27,1,2)</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G27" t="str">
-        <f>MID(E27,4,2)</f>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="H27">
-        <f>F27*60+G27</f>
+        <f t="shared" si="2"/>
         <v>3355</v>
       </c>
     </row>
@@ -2052,15 +2004,15 @@
         <v>18</v>
       </c>
       <c r="F28" t="str">
-        <f>MID(E28,1,2)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="G28" t="str">
-        <f>MID(E28,4,2)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H28">
-        <f>F28*60+G28</f>
+        <f t="shared" si="2"/>
         <v>3416</v>
       </c>
     </row>
@@ -2081,15 +2033,15 @@
         <v>9</v>
       </c>
       <c r="F29" t="str">
-        <f>MID(E29,1,2)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
       <c r="G29" t="str">
-        <f>MID(E29,4,2)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H29">
-        <f>F29*60+G29</f>
+        <f t="shared" si="2"/>
         <v>3435</v>
       </c>
     </row>
@@ -2110,15 +2062,15 @@
         <v>14</v>
       </c>
       <c r="F30" t="str">
-        <f>MID(E30,1,2)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
       <c r="G30" t="str">
-        <f>MID(E30,4,2)</f>
+        <f t="shared" si="1"/>
         <v>01</v>
       </c>
       <c r="H30">
-        <f>F30*60+G30</f>
+        <f t="shared" si="2"/>
         <v>3481</v>
       </c>
     </row>
